--- a/Revisao Prova1/C208 - Revisão 1 - Prova 1.xlsx
+++ b/Revisao Prova1/C208 - Revisão 1 - Prova 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BD37D62-E31B-4F3C-96CD-6CF8B4731602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{A9756636-A194-4E45-B46C-E5F935AE50EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CF0D6E9-A1AE-48CD-8FFD-43BDA2DC75F6}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4C29880E-D8A8-4249-9135-CD1A65D7F563}"/>
   </bookViews>
@@ -931,7 +931,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACCED772-0FBB-461F-8F79-8964B21E1255}">
   <dimension ref="B2:Y178"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J165" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A165" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="W173" sqref="W173:Y173"/>
     </sheetView>
   </sheetViews>
